--- a/pressurevtravel.xlsx
+++ b/pressurevtravel.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Movement (mm)</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Recc pressure</t>
+  </si>
+  <si>
+    <t>Monarch</t>
+  </si>
+  <si>
+    <t>Fox</t>
   </si>
 </sst>
 </file>
@@ -103,298 +109,13 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pressure (psi)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>250</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2203-44E5-BC2E-E3AB00732761}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="862787743"/>
-        <c:axId val="684780495"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="862787743"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -406,166 +127,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Movement (mm) Monarch</a:t>
+            </a:r>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="684780495"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="684780495"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="862787743"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -606,7 +174,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -647,8 +215,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -690,10 +257,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>Sheet1!$B$3:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>29</c:v>
                 </c:pt>
@@ -732,25 +299,16 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Sheet1!$A$3:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -789,15 +347,6 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,8 +501,58 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -967,7 +566,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -982,7 +581,884 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Fox</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Movement (mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.33681024409558769"/>
+                  <c:y val="-1.4950422863808691E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-45F9-48F1-BF5A-485E31B4DF80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1008971567"/>
+        <c:axId val="1125858799"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1008971567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1125858799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1125858799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1008971567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monarch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C2A-45D5-A04F-D8FF22DF80AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fox</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C2A-45D5-A04F-D8FF22DF80AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="938894431"/>
+        <c:axId val="938906495"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="938894431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="938906495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="938906495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="938894431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1100,6 +1576,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2132,24 +2648,540 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2166,20 +3198,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2189,6 +3221,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2494,160 +3556,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>100</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>29</v>
       </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>110</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>26.5</v>
       </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>120</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>24</v>
       </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>130</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>23</v>
       </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>140</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>22</v>
       </c>
+      <c r="C7">
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>150</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>21</v>
       </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>160</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>20</v>
       </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>170</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>17.5</v>
       </c>
+      <c r="C10">
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>180</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>17</v>
       </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>190</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>15.5</v>
       </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>200</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>14.5</v>
       </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>210</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>14</v>
       </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>220</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>230</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>12.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>240</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>250</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2655,164 +3767,264 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
       <c r="B21">
-        <v>280.79000000000002</v>
+        <f>(-7.6655*A21)+311.54</f>
+        <v>234.88500000000002</v>
+      </c>
+      <c r="C21">
+        <f>(-6.1971*A21)+223.16</f>
+        <v>161.18899999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
       <c r="B22">
-        <v>267.584</v>
+        <f t="shared" ref="B22:B40" si="0">(-7.6655*A22)+311.54</f>
+        <v>227.21950000000004</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:C40" si="1">(-6.1971*A22)+223.16</f>
+        <v>154.99189999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12</v>
       </c>
       <c r="B23">
-        <v>254.90799999999999</v>
+        <f t="shared" si="0"/>
+        <v>219.55400000000003</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>148.79480000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13</v>
       </c>
       <c r="B24">
-        <v>242.762</v>
+        <f t="shared" si="0"/>
+        <v>211.88850000000002</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>142.5977</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>14</v>
       </c>
       <c r="B25">
-        <v>231.14599999999999</v>
+        <f t="shared" si="0"/>
+        <v>204.22300000000001</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>136.4006</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>15</v>
       </c>
       <c r="B26">
-        <v>220.06</v>
+        <f t="shared" si="0"/>
+        <v>196.5575</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>130.20350000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>16</v>
       </c>
       <c r="B27">
-        <v>209.50399999999999</v>
+        <f t="shared" si="0"/>
+        <v>188.89200000000002</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>124.0064</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>17</v>
       </c>
       <c r="B28">
-        <v>199.47800000000001</v>
+        <f t="shared" si="0"/>
+        <v>181.22650000000002</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>117.80929999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>18</v>
       </c>
       <c r="B29">
-        <v>189.982</v>
+        <f t="shared" si="0"/>
+        <v>173.56100000000004</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>111.6122</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>19</v>
       </c>
       <c r="B30">
-        <v>181.01599999999999</v>
+        <f t="shared" si="0"/>
+        <v>165.89550000000003</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>105.4151</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20</v>
       </c>
       <c r="B31">
-        <v>172.58</v>
+        <f t="shared" si="0"/>
+        <v>158.23000000000002</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>99.218000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>21</v>
       </c>
       <c r="B32">
-        <v>164.67400000000001</v>
+        <f t="shared" si="0"/>
+        <v>150.56450000000004</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>93.020900000000012</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>22</v>
       </c>
       <c r="B33">
-        <v>157.298</v>
+        <f t="shared" si="0"/>
+        <v>142.89900000000003</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>86.823800000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>23</v>
       </c>
       <c r="B34">
-        <v>150.452</v>
+        <f t="shared" si="0"/>
+        <v>135.23350000000002</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>80.6267</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>24</v>
       </c>
       <c r="B35">
-        <v>144.136</v>
+        <f t="shared" si="0"/>
+        <v>127.56800000000004</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>74.429599999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>25</v>
       </c>
       <c r="B36">
-        <v>138.35</v>
+        <f t="shared" si="0"/>
+        <v>119.90250000000003</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>68.232499999999987</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>26</v>
       </c>
       <c r="B37">
-        <v>133.09399999999999</v>
+        <f t="shared" si="0"/>
+        <v>112.23700000000002</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>62.03540000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>27</v>
       </c>
       <c r="B38">
-        <v>128.36799999999999</v>
+        <f t="shared" si="0"/>
+        <v>104.57150000000001</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>55.838300000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>28</v>
       </c>
       <c r="B39">
-        <v>124.172</v>
+        <f t="shared" si="0"/>
+        <v>96.906000000000034</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>49.641199999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>29</v>
       </c>
       <c r="B40">
-        <v>120.506</v>
+        <f t="shared" si="0"/>
+        <v>89.240500000000026</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>43.444099999999992</v>
       </c>
     </row>
   </sheetData>
